--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -65,12 +65,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -436,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,8 +488,8 @@
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44351.46543855745</v>
+      <c r="B2" s="3" t="n">
+        <v>44351.46543855324</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,6 +509,64 @@
       </c>
       <c r="G2" t="n">
         <v>2.912727216666667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44354.77812368055</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>regression_145final</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>103</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.699947816666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>44355.52055797454</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>regression_final_145</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>101</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.896933683333333</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +623,35 @@
         <is>
           <t>Time Taken</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>44355.6871661205</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>145_beta</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.358921433333333</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -63,20 +63,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -570,7 +570,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -580,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>44355.6871661205</v>
+        <v>44355.68716612268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -654,8 +654,37 @@
         <v>4.358921433333333</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44356.6332471106</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>145_beta</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>105</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.857780133333333</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -711,7 +740,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -767,6 +796,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,31 +13,53 @@
     <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="10.5"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FFC9211E"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -49,7 +72,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FA9A"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -62,87 +85,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FA9A"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -433,369 +484,1239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
+    <col width="17.68" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>44351.46543855324</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>regression_145_1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>105</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Regression_138</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.912727216666667</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="G2" s="5" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Regression_139</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>44354.77812368055</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>regression_145final</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>103</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.699947816666667</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B4" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Regression_140</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Regression_141</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>44355.52055797454</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>regression_final_145</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>101</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.896933683333333</v>
-      </c>
-    </row>
+      <c r="B6" s="8" t="n">
+        <v>44355.86976752315</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Regression_142</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>44355.87199148148</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Regression_143</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44356.64708844908</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Regression_144</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="6">
+      <c r="B9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="6">
+      <c r="B10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="6">
+      <c r="B11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="6">
+      <c r="B12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="6">
+      <c r="B13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="6">
+      <c r="B14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="6">
+      <c r="B15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="6">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="8" t="n"/>
+    </row>
+    <row r="17" ht="13.8" customHeight="1" s="6">
+      <c r="B17" s="8" t="n"/>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" s="6">
+      <c r="B18" s="8" t="n"/>
+    </row>
+    <row r="19" ht="13.8" customHeight="1" s="6">
+      <c r="B19" s="8" t="n"/>
+    </row>
+    <row r="20" ht="13.8" customHeight="1" s="6">
+      <c r="B20" s="8" t="n"/>
+    </row>
+    <row r="21" ht="13.8" customHeight="1" s="6">
+      <c r="B21" s="8" t="n"/>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="6">
+      <c r="B22" s="8" t="n"/>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="6">
+      <c r="B23" s="8" t="n"/>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" s="6">
+      <c r="B24" s="8" t="n"/>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" s="6">
+      <c r="B25" s="8" t="n"/>
+    </row>
+    <row r="26" ht="13.8" customHeight="1" s="6">
+      <c r="B26" s="8" t="n"/>
+    </row>
+    <row r="27" ht="13.8" customHeight="1" s="6">
+      <c r="B27" s="8" t="n"/>
+    </row>
+    <row r="28" ht="13.8" customHeight="1" s="6">
+      <c r="B28" s="8" t="n"/>
+    </row>
+    <row r="29" ht="13.8" customHeight="1" s="6">
+      <c r="B29" s="8" t="n"/>
+    </row>
+    <row r="30" ht="13.8" customHeight="1" s="6">
+      <c r="B30" s="8" t="n"/>
+    </row>
+    <row r="31" ht="13.8" customHeight="1" s="6">
+      <c r="B31" s="8" t="n"/>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="6"/>
+    <row r="33" ht="13.8" customHeight="1" s="6"/>
+    <row r="34" ht="13.8" customHeight="1" s="6"/>
+    <row r="35" ht="13.8" customHeight="1" s="6"/>
+    <row r="36" ht="13.8" customHeight="1" s="6"/>
+    <row r="37" ht="13.8" customHeight="1" s="6"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>beta_138</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>beta_139</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>beta_140</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>beta_141</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>44355.68716612268</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>145_beta</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.358921433333333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B6" s="8" t="n">
+        <v>44355.86976752315</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>beta_142</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>209</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>44355.87199148148</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>beta_143</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>44356.6332471106</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>145_beta</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>105</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.857780133333333</v>
-      </c>
-    </row>
+      <c r="B8" s="8" t="n">
+        <v>44356.64708844908</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>beta_144</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="B9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="B10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="B11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="B12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="B13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="B14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="B15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="B16" s="8" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
+    <col width="11.06" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>live_138</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>live_139</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>live_140</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>live_141</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>44355.86976752315</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>live_142</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>44355.87199148148</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>live_143</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44356.64708844908</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>live_144</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="6">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-11</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>44358.59331414352</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>pavan_demo_145</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="6">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-06-11</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>44358.6447851841</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pavan_demo_145</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>105</v>
+      </c>
+      <c r="E10" t="n">
+        <v>105</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="B11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="B12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="B13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="B14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="B15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="B16" s="8" t="n"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="13.8" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>india_138</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>india_139</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>india_140</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>india_141</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>44355.86976752315</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>india_142</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>44355.87199148148</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>india_143</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44356.64708844908</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>india_144</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="6">
+      <c r="B9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="6">
+      <c r="B10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="6">
+      <c r="B11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="6">
+      <c r="B12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="6">
+      <c r="B13" s="8" t="n"/>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="6">
+      <c r="B14" s="8" t="n"/>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="6">
+      <c r="B15" s="8" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1386,39 +1386,85 @@
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
       <c r="B10" s="10" t="n">
-        <v>44358.6447851841</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>44358.64478518518</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>pavan_demo_145</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>2.88</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44363.686375</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>live_145_hotfix</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44363.79865090203</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>live_145_hf2</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E12" t="n">
+        <v>105</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.87</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
       <c r="B13" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1440,15 +1440,15 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>44363.79865090203</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>44363.79865090278</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
@@ -1456,23 +1456,69 @@
       <c r="D12" s="9" t="n">
         <v>105</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>2.87</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44364.553549375</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>145_data_hstry</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.87</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44364.61715227317</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>145_hstry_data</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E14" t="n">
+        <v>105</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
       <c r="B15" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -95,7 +96,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -127,6 +128,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,29 +735,29 @@
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B9" s="10" t="n">
-        <v>44365.52004870567</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>44365.52004870371</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>145_fnltstfrdy</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>105</v>
-      </c>
-      <c r="E9" t="n">
-        <v>105</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="D9" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>2.86</v>
       </c>
     </row>
@@ -1138,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1379,6 +1381,33 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>44365.76903103295</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>145_lstrnfdy</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E9" t="n">
+        <v>105</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.87</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -762,34 +761,220 @@
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>44368.71862998843</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>145_mndyto</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44371.61836564815</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>146_fsttst</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.93</v>
+      </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44372.70603623843</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>146_replica</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.18</v>
+      </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44372.82655381945</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_msttomst</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.05</v>
+      </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44375.5493184375</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_thrdcycle</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.99</v>
+      </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44375.72899009259</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>146_rgrsncycle</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.62</v>
+      </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44376.28511337963</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="6">
-      <c r="B17" s="8" t="n"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44376.29051369213</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2.86</v>
+      </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
       <c r="B18" s="8" t="n"/>
@@ -1098,7 +1283,31 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="6">
-      <c r="B9" s="8" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>44376.60451633586</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>146_beta</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E9" t="n">
+        <v>105</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="6">
       <c r="B10" s="8" t="n"/>
@@ -1140,7 +1349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1385,30 +1594,57 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B9" s="11" t="n">
-        <v>44365.76903103295</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>44365.76903103009</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>145_lstrnfdy</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>105</v>
-      </c>
-      <c r="E9" t="n">
-        <v>105</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="D9" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>2.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>44369.79758319444</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -977,7 +978,31 @@
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
-      <c r="B18" s="8" t="n"/>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-06</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44383.76335603009</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>3.17</v>
+      </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="6">
       <c r="B19" s="8" t="n"/>
@@ -1283,29 +1308,29 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
       <c r="B9" s="10" t="n">
-        <v>44376.60451633586</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>44376.60451633102</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>146_beta</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>105</v>
-      </c>
-      <c r="E9" t="n">
-        <v>105</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="D9" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>3.36</v>
       </c>
     </row>
@@ -1349,7 +1374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1645,6 +1670,60 @@
       </c>
       <c r="G10" s="5" t="n">
         <v>2.82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>44376.86080802084</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>44385.32647128616</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>105</v>
+      </c>
+      <c r="E12" t="n">
+        <v>105</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1005,13 +1004,85 @@
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="B19" s="8" t="n"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44399.64579719907</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>147_tolive</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="6">
-      <c r="B20" s="8" t="n"/>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44442.49303321759</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>149_regression</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>3.34</v>
+      </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="6">
-      <c r="B21" s="8" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44475.70902157996</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>151_regression</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>105</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.94</v>
+      </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="6">
       <c r="B22" s="8" t="n"/>
@@ -1335,7 +1406,31 @@
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>44424.56768230324</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>148_beta</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>5.11</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
       <c r="B11" s="8" t="n"/>
@@ -1374,7 +1469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1700,30 +1795,57 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2021-07-08</t>
         </is>
       </c>
       <c r="B12" s="11" t="n">
-        <v>44385.32647128616</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>44385.32647128472</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>146_earlyip</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>105</v>
-      </c>
-      <c r="E12" t="n">
-        <v>105</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="D12" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>3.27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>44424.91246122685</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>148_live</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.51</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1058,37 +1058,85 @@
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="6">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>2021-10-06</t>
         </is>
       </c>
       <c r="B21" s="10" t="n">
-        <v>44475.70902157996</v>
-      </c>
-      <c r="C21" t="inlineStr">
+        <v>44475.70902158565</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>151_regression</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>105</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5" t="n">
         <v>4.94</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="6">
-      <c r="B22" s="8" t="n"/>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44495.65370459491</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>152_fstcycle</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>3.63</v>
+      </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="6">
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44496.66827148148</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>152_scndcycle</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>6.95</v>
+      </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="6">
       <c r="B24" s="8" t="n"/>
@@ -1433,8 +1481,31 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44497.62992095913</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>152_beta</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E11" t="n">
+        <v>105</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
       <c r="B12" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1139,25 +1139,193 @@
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="6">
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44518.449100625</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>153fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="6">
-      <c r="B25" s="8" t="n"/>
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44536.46452553241</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>154_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="6">
-      <c r="B26" s="8" t="n"/>
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44553.46732283565</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>155_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>3.84</v>
+      </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="6">
-      <c r="B27" s="8" t="n"/>
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44564.64498291667</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>lodash</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>3.65</v>
+      </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="6">
-      <c r="B28" s="8" t="n"/>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44581.42184125</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>156_fnlrsgn</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>3.53</v>
+      </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="6">
-      <c r="B29" s="8" t="n"/>
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44589.60401837963</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>3.03</v>
+      </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="6">
-      <c r="B30" s="8" t="n"/>
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44599.80359118056</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>secondcycle_157</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>4.69</v>
+      </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="6">
       <c r="B31" s="8" t="n"/>
@@ -1481,15 +1649,15 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>44497.62992095913</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>44497.62992096065</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>152_beta</t>
         </is>
@@ -1497,34 +1665,150 @@
       <c r="D11" s="9" t="n">
         <v>105</v>
       </c>
-      <c r="E11" t="n">
-        <v>105</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="E11" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>3.31</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44518.60412517361</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>153_beta</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.02</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44536.56180530092</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>154_beta</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.96</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44553.53843144676</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>155_beta</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>4.42</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44581.55297791667</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>156_beta</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44600.66489227242</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>157_beta</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>105</v>
+      </c>
+      <c r="E16" t="n">
+        <v>102</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
@@ -1540,7 +1824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1917,6 +2201,60 @@
       </c>
       <c r="G13" s="5" t="n">
         <v>6.51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>44536.88614167824</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>154_live</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>44581.84235005787</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>156_live</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -489,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -1328,12 +1329,140 @@
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="6">
-      <c r="B31" s="8" t="n"/>
-    </row>
-    <row r="32" ht="13.8" customHeight="1" s="6"/>
-    <row r="33" ht="13.8" customHeight="1" s="6"/>
-    <row r="34" ht="13.8" customHeight="1" s="6"/>
-    <row r="35" ht="13.8" customHeight="1" s="6"/>
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44622.69627986111</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>158scndcycle</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="6">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>44623.45364255787</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>158fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="33" ht="13.8" customHeight="1" s="6">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>44648.42924671296</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>159fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="34" ht="13.8" customHeight="1" s="6">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>44659.75822251158</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>160fnlcould</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="35" ht="13.8" customHeight="1" s="6">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>44663.41912403935</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>160fnltest</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
     <row r="36" ht="13.8" customHeight="1" s="6"/>
     <row r="37" ht="13.8" customHeight="1" s="6"/>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -1350,7 +1479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -1784,30 +1913,111 @@
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="6">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
       <c r="B16" s="10" t="n">
-        <v>44600.66489227242</v>
-      </c>
-      <c r="C16" t="inlineStr">
+        <v>44600.66489226852</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>157_beta</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>105</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44623.55994006944</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>158_beta</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44648.56229153935</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>159beta</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>44663.57370832176</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>160_beta</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>2.78</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -1824,7 +2034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2255,6 +2465,87 @@
       </c>
       <c r="G15" s="5" t="n">
         <v>5.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>44623.87732277778</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>158_live</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44648.83381045139</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>159live</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44663.83580847298</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>160_live</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>105</v>
+      </c>
+      <c r="E18" t="n">
+        <v>105</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -1463,8 +1463,168 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="6"/>
-    <row r="37" ht="13.8" customHeight="1" s="6"/>
+    <row r="36" ht="13.8" customHeight="1" s="6">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>44736.67867836806</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>163_flowwiintt</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="37" ht="13.8" customHeight="1" s="6">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>44739.69170403935</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>163_finalrun</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>44740.34221271991</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>163_relday</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>44755.44128159722</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>164_fstcycle</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>44755.63942744213</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>164_scndcycle</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>44756.5122568287</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>164finalrun</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1479,7 +1639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -2020,6 +2180,60 @@
         <v>2.78</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>44740.51561175926</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>163_beta</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44756.55057511574</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>164_beta</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2034,7 +2248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2522,30 +2736,84 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
       <c r="B18" s="11" t="n">
-        <v>44663.83580847298</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>44663.83580847222</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>160_live</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>105</v>
-      </c>
-      <c r="E18" t="n">
-        <v>105</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="D18" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>44740.85180224537</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>163_live</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>44756.82675686922</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>164_live</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>105</v>
+      </c>
+      <c r="E20" t="n">
+        <v>105</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -1625,6 +1625,141 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>44775.66775893518</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>165_fstcycle</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>44776.69424932871</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>165_scndcycle</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>44777.39674225695</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>165_finalrun</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>44795.67676381944</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>166fstcycle</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>44796.9109019213</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>166cyclescnd</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1639,7 +1774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -2234,6 +2369,60 @@
         <v>2.68</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44777.56998666667</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>165beta</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44797.55008375</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>166_beta</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2248,7 +2437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2790,30 +2979,84 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
       <c r="B20" s="11" t="n">
-        <v>44756.82675686922</v>
-      </c>
-      <c r="C20" t="inlineStr">
+        <v>44756.826756875</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>164_live</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>105</v>
-      </c>
-      <c r="E20" t="n">
-        <v>105</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="D20" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
         <v>2.77</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44777.82335487269</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>165_live</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44797.92717719739</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>166_live</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>105</v>
+      </c>
+      <c r="E22" t="n">
+        <v>105</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -1760,6 +1760,114 @@
         <v>2.84</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>44816.62676319444</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>ecstest167</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>44820.63874326389</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>fstcyc167</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B49" s="11" t="n">
+        <v>44823.66180796296</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle167</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>44824.3776330787</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>finalrun167</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1774,7 +1882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -2421,6 +2529,33 @@
       </c>
       <c r="G23" s="5" t="n">
         <v>2.71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44824.52734270386</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>beta167</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>105</v>
+      </c>
+      <c r="E24" t="n">
+        <v>105</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -3033,29 +3168,29 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
       <c r="B22" s="11" t="n">
-        <v>44797.92717719739</v>
-      </c>
-      <c r="C22" t="inlineStr">
+        <v>44797.92717719908</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>166_live</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>105</v>
-      </c>
-      <c r="E22" t="n">
-        <v>105</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="D22" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <v>2.72</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -1868,6 +1868,114 @@
         <v>4.01</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B51" s="11" t="n">
+        <v>44844.6245547338</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>scndcycl168</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B52" s="11" t="n">
+        <v>44845.46675384259</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>168fnlrun</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="n">
+        <v>44867.67440572917</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle169</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B54" s="11" t="n">
+        <v>44868.4659365162</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>finalrun169</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1882,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -2532,30 +2640,84 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B24" s="11" t="n">
-        <v>44824.52734270386</v>
-      </c>
-      <c r="C24" t="inlineStr">
+        <v>44824.52734270833</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>beta167</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>105</v>
-      </c>
-      <c r="E24" t="n">
-        <v>105</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="D24" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
         <v>2.75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44845.55963880787</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>beta168</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44868.52880554398</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>beta169</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -2572,7 +2734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3192,6 +3354,87 @@
       </c>
       <c r="G22" s="5" t="n">
         <v>2.72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44824.88414993056</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>live167</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44845.86029430555</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>live168</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44868.83896957742</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>live169</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>105</v>
+      </c>
+      <c r="E25" t="n">
+        <v>105</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -1976,6 +1976,87 @@
         <v>3.08</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B55" s="11" t="n">
+        <v>44914.49663186343</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>finalrun171</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B56" s="11" t="n">
+        <v>44945.68458776621</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>scnd172release</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B57" s="11" t="n">
+        <v>44946.40468324074</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>finalrun172</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1990,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -2720,6 +2801,60 @@
         <v>2.93</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44894.5536421875</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>170beta</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44946.57502564815</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>172beta</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2734,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3411,30 +3546,84 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>2022-11-03</t>
         </is>
       </c>
       <c r="B25" s="11" t="n">
-        <v>44868.83896957742</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>44868.83896957176</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>live169</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>105</v>
-      </c>
-      <c r="E25" t="n">
-        <v>105</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="D25" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <v>2.71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44894.89535075232</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>170live</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44946.89803562257</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>172live</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>105</v>
+      </c>
+      <c r="E27" t="n">
+        <v>105</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2057,6 +2057,60 @@
         <v>2.71</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B58" s="11" t="n">
+        <v>44974.43926104167</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>173cyclefst</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B59" s="11" t="n">
+        <v>44977.41202688657</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>173fnlrun</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2071,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -2855,6 +2909,33 @@
         <v>2.77</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44977.59907541666</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>173beta</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2869,7 +2950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3600,30 +3681,57 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
       <c r="B27" s="11" t="n">
-        <v>44946.89803562257</v>
-      </c>
-      <c r="C27" t="inlineStr">
+        <v>44946.898035625</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>172live</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>105</v>
-      </c>
-      <c r="E27" t="n">
-        <v>105</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="D27" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>2.85</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44977.83812617893</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>live173</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>105</v>
+      </c>
+      <c r="E28" t="n">
+        <v>105</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.78</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2111,6 +2111,114 @@
         <v>2.8</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="B60" s="11" t="n">
+        <v>44995.80925340277</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>174ffiinnalrun</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B61" s="11" t="n">
+        <v>44998.4768587963</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>174finalrun</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B62" s="11" t="n">
+        <v>45016.48927526621</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>175fnlrun</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B63" s="11" t="n">
+        <v>45028.71761399509</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>176fstrtail</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>105</v>
+      </c>
+      <c r="E63" t="n">
+        <v>105</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2125,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -2936,6 +3044,60 @@
         <v>3.41</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>44998.53920436343</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>174beta</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>45016.54557880787</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>175beta</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2950,7 +3112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3708,30 +3870,138 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B28" s="11" t="n">
-        <v>44977.83812617893</v>
-      </c>
-      <c r="C28" t="inlineStr">
+        <v>44977.83812618056</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>live173</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>105</v>
-      </c>
-      <c r="E28" t="n">
-        <v>105</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="D28" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <v>2.78</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44986.69534331019</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>173angularvrs</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>44987.43363311343</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>liveangular173</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>44998.84558796296</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>174live</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>45016.79634638889</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>175live</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2193,30 +2193,57 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
       <c r="B63" s="11" t="n">
-        <v>45028.71761399509</v>
-      </c>
-      <c r="C63" t="inlineStr">
+        <v>45028.71761399305</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>176fstrtail</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>105</v>
-      </c>
-      <c r="E63" t="n">
-        <v>105</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="D63" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
         <v>2.87</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B64" s="11" t="n">
+        <v>45034.55313322834</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>176firsttrail</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>105</v>
+      </c>
+      <c r="E64" t="n">
+        <v>105</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2220,30 +2220,84 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B64" s="11" t="n">
-        <v>45034.55313322834</v>
-      </c>
-      <c r="C64" t="inlineStr">
+        <v>45034.55313322916</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>176firsttrail</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>105</v>
-      </c>
-      <c r="E64" t="n">
-        <v>105</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="D64" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
         <v>3.19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B65" s="11" t="n">
+        <v>45035.70167424768</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>176scndcyc</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B66" s="11" t="n">
+        <v>45036.42445592592</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>176fnlruntest</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2260,7 +2314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -3125,6 +3179,33 @@
         <v>2.97</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>45036.52280033565</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>176beta</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3139,7 +3220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4029,6 +4110,60 @@
       </c>
       <c r="G32" s="5" t="n">
         <v>2.73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>45050.72727009259</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>176firstsycle</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>45054.5429728984</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>176htfxtrl</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>105</v>
+      </c>
+      <c r="E34" t="n">
+        <v>105</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2300,6 +2300,114 @@
         <v>3.69</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B67" s="11" t="n">
+        <v>45064.37190262732</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>177fnlrun</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B68" s="11" t="n">
+        <v>45071.63709925926</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>178dayone</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B69" s="11" t="n">
+        <v>45089.71715896991</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>178daytest</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B70" s="11" t="n">
+        <v>45089.7286013594</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>178daytest</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>105</v>
+      </c>
+      <c r="E70" t="n">
+        <v>103</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2314,7 +2422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -3206,6 +3314,33 @@
         <v>2.72</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>45064.50363847222</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>177beta</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3220,7 +3355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4140,30 +4275,57 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
       <c r="B34" s="11" t="n">
-        <v>45054.5429728984</v>
-      </c>
-      <c r="C34" t="inlineStr">
+        <v>45054.54297289352</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>176htfxtrl</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>105</v>
-      </c>
-      <c r="E34" t="n">
-        <v>105</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="D34" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
         <v>3.05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>45065.58649048611</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>177live</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2382,30 +2382,57 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B70" s="11" t="n">
-        <v>45089.7286013594</v>
-      </c>
-      <c r="C70" t="inlineStr">
+        <v>45089.72860135417</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
         <is>
           <t>178daytest</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>105</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="D70" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E70" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="5" t="n">
         <v>4.44</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B71" s="11" t="n">
+        <v>45138.41657248842</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>180fnlrun</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2422,7 +2449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -3341,6 +3368,60 @@
         <v>4.41</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>45139.5682859375</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>180beta</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>45139.68982625</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>180beta</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3355,7 +3436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4326,6 +4407,33 @@
       </c>
       <c r="G35" s="5" t="n">
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>45139.84663266376</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>180live</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>105</v>
+      </c>
+      <c r="E36" t="n">
+        <v>105</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2435,6 +2435,411 @@
         <v>3.32</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B72" s="11" t="n">
+        <v>45203.45974109953</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>183fnlrun</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B73" s="11" t="n">
+        <v>45226.65485671296</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>183fstrun</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B74" s="11" t="n">
+        <v>45229.37618751157</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>184fnlrun</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B75" s="11" t="n">
+        <v>45258.74135012731</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>185scnddyle</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B76" s="11" t="n">
+        <v>45259.33785383102</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>185lastcyc</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B77" s="11" t="n">
+        <v>45275.70837202546</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>186scndcycle</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B78" s="11" t="n">
+        <v>45278.44296565972</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>186fnlruun</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B79" s="11" t="n">
+        <v>45281.71806521991</v>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B80" s="11" t="n">
+        <v>45281.74970106481</v>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B81" s="11" t="n">
+        <v>45301.37002439815</v>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>187lstcycle</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B82" s="11" t="n">
+        <v>45323.66573263889</v>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>188firstcyc</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B83" s="11" t="n">
+        <v>45324.84856277778</v>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>188scndcycle</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B84" s="11" t="n">
+        <v>45327.41158043982</v>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B85" s="11" t="n">
+        <v>45357.73506719907</v>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>189ffstccycle</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B86" s="11" t="n">
+        <v>45359.37173890046</v>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>189fnlrun</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2449,7 +2854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -3422,6 +3827,195 @@
         <v>3.25</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>45203.55641454861</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>183beta</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>45229.62677728009</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>184beta</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>45259.6184659375</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>185beta</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>45278.55595940972</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>186beta</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>45301.58436814815</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>187betaa</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>45327.55802575232</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>188beta</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>45359.46028380787</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>189beta</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3436,7 +4030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4410,30 +5004,165 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B36" s="11" t="n">
-        <v>45139.84663266376</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>45139.84663266204</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>180live</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>105</v>
-      </c>
-      <c r="E36" t="n">
-        <v>105</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="D36" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <v>2.86</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>45259.88004738426</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>185live</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>45280.45612737269</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>186livvee</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>45301.85218585648</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>187live</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>45327.89396857639</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>188live</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>45359.74440447986</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>189livee</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>105</v>
+      </c>
+      <c r="E41" t="n">
+        <v>105</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2840,6 +2840,141 @@
         <v>2.96</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B87" s="11" t="n">
+        <v>45380.425904375</v>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>190fstcycle</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B88" s="11" t="n">
+        <v>45383.39436092593</v>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>190fnlrun</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B89" s="11" t="n">
+        <v>45407.46173684028</v>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>191trail</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F89" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B90" s="11" t="n">
+        <v>45414.48946399306</v>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>191fstcycle</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B91" s="11" t="n">
+        <v>45415.35635767361</v>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>191lstrun</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F91" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2854,7 +2989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -4016,6 +4151,60 @@
         <v>3.05</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>45383.56258765046</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>190betatest</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>45415.62623882906</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>191beta</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>105</v>
+      </c>
+      <c r="E44" t="n">
+        <v>105</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4030,7 +4219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5139,30 +5328,57 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B41" s="11" t="n">
-        <v>45359.74440447986</v>
-      </c>
-      <c r="C41" t="inlineStr">
+        <v>45359.74440447917</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>189livee</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>105</v>
-      </c>
-      <c r="E41" t="n">
-        <v>105</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="D41" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
         <v>3.21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>45383.87652800926</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>190livee</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>3.46</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -4179,29 +4179,29 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B44" s="11" t="n">
-        <v>45415.62623882906</v>
-      </c>
-      <c r="C44" t="inlineStr">
+        <v>45415.62623883102</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>191beta</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>105</v>
-      </c>
-      <c r="E44" t="n">
-        <v>105</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="D44" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
         <v>3.02</v>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5379,6 +5379,33 @@
       </c>
       <c r="G42" s="5" t="n">
         <v>3.46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>45418.57626356359</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>191live</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>105</v>
+      </c>
+      <c r="E43" t="n">
+        <v>105</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -2973,6 +2973,33 @@
       </c>
       <c r="G91" s="5" t="n">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B92" s="11" t="n">
+        <v>45467.47233300926</v>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>193uifixes</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -4219,7 +4246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5382,30 +5409,57 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B43" s="11" t="n">
-        <v>45418.57626356359</v>
-      </c>
-      <c r="C43" t="inlineStr">
+        <v>45418.57626356481</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>191live</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>105</v>
-      </c>
-      <c r="E43" t="n">
-        <v>105</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="D43" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
         <v>3.41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>45467.66354863559</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>193livepytest</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>105</v>
+      </c>
+      <c r="E44" t="n">
+        <v>92</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6.37</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/LIVE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
@@ -3002,6 +3002,60 @@
         <v>4.23</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B93" s="11" t="n">
+        <v>45489.65545332176</v>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B94" s="11" t="n">
+        <v>45491.31648377315</v>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3016,7 +3070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
@@ -4230,6 +4284,33 @@
       </c>
       <c r="G44" s="5" t="n">
         <v>3.02</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>45491.60799078449</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>105</v>
+      </c>
+      <c r="E45" t="n">
+        <v>105</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -5436,29 +5517,29 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
       <c r="B44" s="11" t="n">
-        <v>45467.66354863559</v>
-      </c>
-      <c r="C44" t="inlineStr">
+        <v>45467.66354863426</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>193livepytest</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>105</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E44" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="5" t="n">
         <v>6.37</v>
       </c>
     </row>
